--- a/content/SLK Project Allocation.xlsx
+++ b/content/SLK Project Allocation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55619E99-349E-45D7-AA97-AD4DD620810F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92084459-9BF5-44D3-9943-3EDA9B6E3937}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{128C59FE-486B-45EC-BA53-A94614931C63}"/>
   </bookViews>
@@ -189,7 +189,7 @@
     <t>Data validations must be implemented</t>
   </si>
   <si>
-    <t>Spring Boot Actuator must be implemented</t>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -583,7 +583,7 @@
   <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -672,7 +672,7 @@
         <v>3</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E5" s="4" t="s">
         <v>3</v>
@@ -695,7 +695,7 @@
         <v>5</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G6" s="4" t="s">
         <v>6</v>
